--- a/biology/Botanique/Sapindales/Sapindales.xlsx
+++ b/biology/Botanique/Sapindales/Sapindales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Sapindales sont un ordre de plantes dicotylédones. Fleurs principalement pentacycliques, elles sont caractérisées par deux verticilles d'étamines (parfois réduites à un staminode) et un disque nectarifère en position variable (nectaire parfois réduit à des glandes internes), d'où son ancienne classification dans les « Disciflores »[1].
-La classification phylogénétique APG II (2003)[2] a détaché la famille des Picramniaceae des Simaroubaceae, et la classification phylogénétique APG III (2009)[3] lui a attribué le nouvel ordre des Picramniales.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Sapindales sont un ordre de plantes dicotylédones. Fleurs principalement pentacycliques, elles sont caractérisées par deux verticilles d'étamines (parfois réduites à un staminode) et un disque nectarifère en position variable (nectaire parfois réduit à des glandes internes), d'où son ancienne classification dans les « Disciflores ».
+La classification phylogénétique APG II (2003) a détaché la famille des Picramniaceae des Simaroubaceae, et la classification phylogénétique APG III (2009) lui a attribué le nouvel ordre des Picramniales.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Cronquist</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En classification classique de Cronquist (1981)[4], il comprend 15 familles :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En classification classique de Cronquist (1981), il comprend 15 familles :
 Acéracées (famille de l'érable)
 Akaniacées
 Anacardiacées (famille de la mangue ou de la noix de cajou)
@@ -557,9 +571,11 @@
           <t>APG</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification phylogénétique APG (1998)[5] ne retient que les familles suivantes :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification phylogénétique APG (1998) ne retient que les familles suivantes :
 ordre des Sapindales
 famille des Anacardiaceae
 famille des Biebersteiniaceae
@@ -600,9 +616,11 @@
           <t>APG II</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification phylogénétique APG II (2003)[2] la circonscription est légèrement modifiée :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification phylogénétique APG II (2003) la circonscription est légèrement modifiée :
 ordre des Sapindales
 famille des Anacardiaceae
 famille des Biebersteiniaceae
@@ -645,10 +663,12 @@
           <t>APG III</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
-En classification phylogénétique APG III (2009)[3] la circonscription est :
+En classification phylogénétique APG III (2009) la circonscription est :
 ordre des Sapindales Juss. ex Bercht. &amp; J.Presl (1820)
 famille des Anacardiaceae R.Br. (1818)
 famille des Biebersteiniaceae Schnizl. (1856)
